--- a/natmiOut/OldD2/LR-pairs_lrc2p/App-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/App-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H2">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I2">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J2">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>186.3552134359827</v>
+        <v>205.725332612393</v>
       </c>
       <c r="R2">
-        <v>186.3552134359827</v>
+        <v>822.901330449572</v>
       </c>
       <c r="S2">
-        <v>0.0007314854152239346</v>
+        <v>0.0007528720128397954</v>
       </c>
       <c r="T2">
-        <v>0.0007314854152239346</v>
+        <v>0.0003740117799768942</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H3">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I3">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J3">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>13397.43162253147</v>
+        <v>14233.83252435916</v>
       </c>
       <c r="R3">
-        <v>13397.43162253147</v>
+        <v>85402.99514615495</v>
       </c>
       <c r="S3">
-        <v>0.05258788124383885</v>
+        <v>0.05209010483521401</v>
       </c>
       <c r="T3">
-        <v>0.05258788124383885</v>
+        <v>0.03881598564498721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H4">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I4">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J4">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>18767.64691290965</v>
+        <v>18988.13313540594</v>
       </c>
       <c r="R4">
-        <v>18767.64691290965</v>
+        <v>113928.7988124357</v>
       </c>
       <c r="S4">
-        <v>0.07366716359444316</v>
+        <v>0.06948893377490602</v>
       </c>
       <c r="T4">
-        <v>0.07366716359444316</v>
+        <v>0.05178107174913572</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H5">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I5">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J5">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>14234.08299204706</v>
+        <v>14632.27058606837</v>
       </c>
       <c r="R5">
-        <v>14234.08299204706</v>
+        <v>87793.62351641023</v>
       </c>
       <c r="S5">
-        <v>0.05587192284988721</v>
+        <v>0.05354822796327906</v>
       </c>
       <c r="T5">
-        <v>0.05587192284988721</v>
+        <v>0.03990253531860841</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H6">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I6">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J6">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>505.1597182904065</v>
+        <v>637.2057234026479</v>
       </c>
       <c r="R6">
-        <v>505.1597182904065</v>
+        <v>3823.234340415887</v>
       </c>
       <c r="S6">
-        <v>0.001982863583341613</v>
+        <v>0.002331916781853291</v>
       </c>
       <c r="T6">
-        <v>0.001982863583341613</v>
+        <v>0.001737674527937053</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H7">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I7">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J7">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>3052.169230163145</v>
+        <v>3053.033412282615</v>
       </c>
       <c r="R7">
-        <v>3052.169230163145</v>
+        <v>12212.13364913046</v>
       </c>
       <c r="S7">
-        <v>0.01198043905236147</v>
+        <v>0.01117287492592391</v>
       </c>
       <c r="T7">
-        <v>0.01198043905236147</v>
+        <v>0.005550461123852692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H8">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I8">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J8">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>117.475663746364</v>
+        <v>145.9846645240333</v>
       </c>
       <c r="R8">
-        <v>117.475663746364</v>
+        <v>875.9079871442</v>
       </c>
       <c r="S8">
-        <v>0.0004611179536639898</v>
+        <v>0.0005342451842380948</v>
       </c>
       <c r="T8">
-        <v>0.0004611179536639898</v>
+        <v>0.0003981035067579786</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H9">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I9">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J9">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>8445.549460810078</v>
+        <v>10100.46375705639</v>
       </c>
       <c r="R9">
-        <v>8445.549460810078</v>
+        <v>90904.17381350748</v>
       </c>
       <c r="S9">
-        <v>0.03315064891520811</v>
+        <v>0.03696363682015674</v>
       </c>
       <c r="T9">
-        <v>0.03315064891520811</v>
+        <v>0.04131629224216257</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H10">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I10">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J10">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>11830.85644560645</v>
+        <v>13474.16096262971</v>
       </c>
       <c r="R10">
-        <v>11830.85644560645</v>
+        <v>121267.4486636674</v>
       </c>
       <c r="S10">
-        <v>0.04643872731010058</v>
+        <v>0.0493100123181005</v>
       </c>
       <c r="T10">
-        <v>0.04643872731010058</v>
+        <v>0.05511651597789497</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H11">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I11">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J11">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>8972.962529357863</v>
+        <v>10383.19921813748</v>
       </c>
       <c r="R11">
-        <v>8972.962529357863</v>
+        <v>93448.7929632373</v>
       </c>
       <c r="S11">
-        <v>0.03522086181844807</v>
+        <v>0.03799833494402059</v>
       </c>
       <c r="T11">
-        <v>0.03522086181844807</v>
+        <v>0.04247283130989477</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H12">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I12">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J12">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>318.4454682534428</v>
+        <v>452.1672784896779</v>
       </c>
       <c r="R12">
-        <v>318.4454682534428</v>
+        <v>4069.505506407101</v>
       </c>
       <c r="S12">
-        <v>0.001249968870077088</v>
+        <v>0.00165475046156911</v>
       </c>
       <c r="T12">
-        <v>0.001249968870077088</v>
+        <v>0.001849605708190508</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H13">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I13">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J13">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>1924.043870673983</v>
+        <v>2166.461722594358</v>
       </c>
       <c r="R13">
-        <v>1924.043870673983</v>
+        <v>12998.77033556615</v>
       </c>
       <c r="S13">
-        <v>0.007552297591784315</v>
+        <v>0.007928378956144793</v>
       </c>
       <c r="T13">
-        <v>0.007552297591784315</v>
+        <v>0.005907990485396199</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H14">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I14">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J14">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N14">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O14">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P14">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q14">
-        <v>263.2890546586207</v>
+        <v>307.0439706741867</v>
       </c>
       <c r="R14">
-        <v>263.2890546586207</v>
+        <v>1842.26382404512</v>
       </c>
       <c r="S14">
-        <v>0.001033467751826745</v>
+        <v>0.001123657496606582</v>
       </c>
       <c r="T14">
-        <v>0.001033467751826745</v>
+        <v>0.0008373159047412419</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H15">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I15">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J15">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N15">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P15">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q15">
-        <v>18928.35215990113</v>
+        <v>21243.91974820578</v>
       </c>
       <c r="R15">
-        <v>18928.35215990113</v>
+        <v>191195.277733852</v>
       </c>
       <c r="S15">
-        <v>0.07429796722025429</v>
+        <v>0.07774420591932137</v>
       </c>
       <c r="T15">
-        <v>0.07429796722025429</v>
+        <v>0.08689897986839719</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H16">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I16">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J16">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N16">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O16">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P16">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q16">
-        <v>26515.57701423909</v>
+        <v>28339.68826080256</v>
       </c>
       <c r="R16">
-        <v>26515.57701423909</v>
+        <v>255057.194347223</v>
       </c>
       <c r="S16">
-        <v>0.1040795022824826</v>
+        <v>0.1037118660751527</v>
       </c>
       <c r="T16">
-        <v>0.1040795022824826</v>
+        <v>0.115924463509618</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H17">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I17">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J17">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N17">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O17">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P17">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q17">
-        <v>20110.40198881173</v>
+        <v>21838.58644764148</v>
       </c>
       <c r="R17">
-        <v>20110.40198881173</v>
+        <v>196547.2780287733</v>
       </c>
       <c r="S17">
-        <v>0.0789377741458227</v>
+        <v>0.07992044697475074</v>
       </c>
       <c r="T17">
-        <v>0.0789377741458227</v>
+        <v>0.0893314843287397</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H18">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I18">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J18">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N18">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O18">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P18">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q18">
-        <v>713.7070234205486</v>
+        <v>951.0261714753958</v>
       </c>
       <c r="R18">
-        <v>713.7070234205486</v>
+        <v>8559.235543278563</v>
       </c>
       <c r="S18">
-        <v>0.002801457865059193</v>
+        <v>0.003480373461497922</v>
       </c>
       <c r="T18">
-        <v>0.002801457865059193</v>
+        <v>0.003890205061443012</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H19">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I19">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J19">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N19">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O19">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P19">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q19">
-        <v>4312.209658378247</v>
+        <v>4556.636217837106</v>
       </c>
       <c r="R19">
-        <v>4312.209658378247</v>
+        <v>27339.81730702264</v>
       </c>
       <c r="S19">
-        <v>0.01692637632364953</v>
+        <v>0.01667545672445337</v>
       </c>
       <c r="T19">
-        <v>0.01692637632364953</v>
+        <v>0.01242605079962166</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H20">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I20">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J20">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N20">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O20">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P20">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q20">
-        <v>154.0892523689807</v>
+        <v>172.797087950472</v>
       </c>
       <c r="R20">
-        <v>154.0892523689807</v>
+        <v>1036.782527702832</v>
       </c>
       <c r="S20">
-        <v>0.0006048343841445</v>
+        <v>0.0006323678750017491</v>
       </c>
       <c r="T20">
-        <v>0.0006048343841445</v>
+        <v>0.0004712215964254568</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H21">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I21">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J21">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N21">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P21">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q21">
-        <v>11077.77015902795</v>
+        <v>11955.5758124258</v>
       </c>
       <c r="R21">
-        <v>11077.77015902795</v>
+        <v>107600.1823118322</v>
       </c>
       <c r="S21">
-        <v>0.04348269713052869</v>
+        <v>0.04375260116127068</v>
       </c>
       <c r="T21">
-        <v>0.04348269713052869</v>
+        <v>0.04890469151423111</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H22">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I22">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J22">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N22">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O22">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P22">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q22">
-        <v>15518.1742877759</v>
+        <v>15948.90658213648</v>
       </c>
       <c r="R22">
-        <v>15518.1742877759</v>
+        <v>143540.1592392283</v>
       </c>
       <c r="S22">
-        <v>0.06091226509372958</v>
+        <v>0.05836658640241577</v>
       </c>
       <c r="T22">
-        <v>0.06091226509372958</v>
+        <v>0.06523954752376054</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H23">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I23">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J23">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N23">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O23">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P23">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q23">
-        <v>11769.56182745062</v>
+        <v>12290.24017251071</v>
       </c>
       <c r="R23">
-        <v>11769.56182745062</v>
+        <v>110612.1615525964</v>
       </c>
       <c r="S23">
-        <v>0.04619813238181269</v>
+        <v>0.04497733817932955</v>
       </c>
       <c r="T23">
-        <v>0.04619813238181269</v>
+        <v>0.05027364751832001</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H24">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I24">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J24">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N24">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O24">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P24">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q24">
-        <v>417.6952277486637</v>
+        <v>535.2150463492241</v>
       </c>
       <c r="R24">
-        <v>417.6952277486637</v>
+        <v>4816.935417143017</v>
       </c>
       <c r="S24">
-        <v>0.001639546119871481</v>
+        <v>0.00195867190554641</v>
       </c>
       <c r="T24">
-        <v>0.001639546119871481</v>
+        <v>0.002189315441275503</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H25">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I25">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J25">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N25">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O25">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P25">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q25">
-        <v>2523.709780413561</v>
+        <v>2564.367141172133</v>
       </c>
       <c r="R25">
-        <v>2523.709780413561</v>
+        <v>15386.2028470328</v>
       </c>
       <c r="S25">
-        <v>0.009906118871553229</v>
+        <v>0.009384552824478911</v>
       </c>
       <c r="T25">
-        <v>0.009906118871553229</v>
+        <v>0.006993087629060458</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H26">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I26">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J26">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N26">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O26">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P26">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q26">
-        <v>158.998605540897</v>
+        <v>179.6476316126627</v>
       </c>
       <c r="R26">
-        <v>158.998605540897</v>
+        <v>1077.885789675976</v>
       </c>
       <c r="S26">
-        <v>0.0006241046807851344</v>
+        <v>0.0006574381107889858</v>
       </c>
       <c r="T26">
-        <v>0.0006241046807851344</v>
+        <v>0.0004899031850978601</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H27">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I27">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J27">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N27">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P27">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q27">
-        <v>11430.71291935593</v>
+        <v>12429.55483071301</v>
       </c>
       <c r="R27">
-        <v>11430.71291935593</v>
+        <v>111865.9934764171</v>
       </c>
       <c r="S27">
-        <v>0.04486807549922931</v>
+        <v>0.04548717382186788</v>
       </c>
       <c r="T27">
-        <v>0.04486807549922931</v>
+        <v>0.05084351888961045</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H28">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I28">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J28">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N28">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O28">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P28">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q28">
-        <v>16012.59032906872</v>
+        <v>16581.20127066991</v>
       </c>
       <c r="R28">
-        <v>16012.59032906872</v>
+        <v>149230.8114360292</v>
       </c>
       <c r="S28">
-        <v>0.06285295736946617</v>
+        <v>0.06068053077095385</v>
       </c>
       <c r="T28">
-        <v>0.06285295736946617</v>
+        <v>0.06782597055966949</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H29">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I29">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J29">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N29">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O29">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P29">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q29">
-        <v>12144.54538276892</v>
+        <v>12777.48696537754</v>
       </c>
       <c r="R29">
-        <v>12144.54538276892</v>
+        <v>114997.3826883979</v>
       </c>
       <c r="S29">
-        <v>0.0476700257439932</v>
+        <v>0.0467604655610533</v>
       </c>
       <c r="T29">
-        <v>0.0476700257439932</v>
+        <v>0.05226674717912303</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H30">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I30">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J30">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N30">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O30">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P30">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q30">
-        <v>431.0031863487341</v>
+        <v>556.4336564957543</v>
       </c>
       <c r="R30">
-        <v>431.0031863487341</v>
+        <v>5007.90290846179</v>
       </c>
       <c r="S30">
-        <v>0.001691782799719987</v>
+        <v>0.00203632348849842</v>
       </c>
       <c r="T30">
-        <v>0.001691782799719987</v>
+        <v>0.002276110891353139</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H31">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I31">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J31">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N31">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O31">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P31">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q31">
-        <v>2604.116313802411</v>
+        <v>2666.031522643204</v>
       </c>
       <c r="R31">
-        <v>2604.116313802411</v>
+        <v>15996.18913585922</v>
       </c>
       <c r="S31">
-        <v>0.01022173229270855</v>
+        <v>0.009756603590129861</v>
       </c>
       <c r="T31">
-        <v>0.01022173229270855</v>
+        <v>0.007270328713992026</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H32">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I32">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J32">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N32">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O32">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P32">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q32">
-        <v>66.61443900222162</v>
+        <v>75.08274110637899</v>
       </c>
       <c r="R32">
-        <v>66.61443900222162</v>
+        <v>300.330964425516</v>
       </c>
       <c r="S32">
-        <v>0.0002614764013038388</v>
+        <v>0.0002747726481152061</v>
       </c>
       <c r="T32">
-        <v>0.0002614764013038388</v>
+        <v>0.0001365015639549364</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H33">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I33">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J33">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N33">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P33">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q33">
-        <v>4789.039035455472</v>
+        <v>5194.864185207473</v>
       </c>
       <c r="R33">
-        <v>4789.039035455472</v>
+        <v>31169.18511124484</v>
       </c>
       <c r="S33">
-        <v>0.01879803705398978</v>
+        <v>0.01901111450827184</v>
       </c>
       <c r="T33">
-        <v>0.01879803705398978</v>
+        <v>0.0141665130101529</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H34">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I34">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J34">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N34">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O34">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P34">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q34">
-        <v>6708.673438453192</v>
+        <v>6930.022016225225</v>
       </c>
       <c r="R34">
-        <v>6708.673438453192</v>
+        <v>41580.13209735135</v>
       </c>
       <c r="S34">
-        <v>0.02633302651022684</v>
+        <v>0.02536109461156989</v>
       </c>
       <c r="T34">
-        <v>0.02633302651022684</v>
+        <v>0.01889832795495495</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H35">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I35">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J35">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N35">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O35">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P35">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q35">
-        <v>5088.108004834574</v>
+        <v>5340.280510238308</v>
       </c>
       <c r="R35">
-        <v>5088.108004834574</v>
+        <v>32041.68306142985</v>
       </c>
       <c r="S35">
-        <v>0.01997194888190876</v>
+        <v>0.01954327979844542</v>
       </c>
       <c r="T35">
-        <v>0.01997194888190876</v>
+        <v>0.01456306664216199</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H36">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I36">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J36">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N36">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O36">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P36">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q36">
-        <v>180.5741337738083</v>
+        <v>232.558391104343</v>
       </c>
       <c r="R36">
-        <v>180.5741337738083</v>
+        <v>1395.350346626058</v>
       </c>
       <c r="S36">
-        <v>0.0007087933993733505</v>
+        <v>0.0008510702196476305</v>
       </c>
       <c r="T36">
-        <v>0.0007087933993733505</v>
+        <v>0.0006341920319266872</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H37">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I37">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J37">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N37">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O37">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P37">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q37">
-        <v>1091.0268473761</v>
+        <v>1114.253234507744</v>
       </c>
       <c r="R37">
-        <v>1091.0268473761</v>
+        <v>4457.012938030976</v>
       </c>
       <c r="S37">
-        <v>0.004282521598181756</v>
+        <v>0.004077718892586021</v>
       </c>
       <c r="T37">
-        <v>0.004282521598181756</v>
+        <v>0.002025729307573608</v>
       </c>
     </row>
   </sheetData>
